--- a/PagineHtml/prodotti10.0.xlsx
+++ b/PagineHtml/prodotti10.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tovagliolo di carta marrone biodegradabile tovagliolo di bambù marrone tovagliolo di bambù all'ingrosso</t>
+          <t>JianHua Tissue Co., Ltd.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>All'ingrosso polpa di bambù 2 strati tovaglioli biodegradabili per feste</t>
+          <t>Quanzhou Blossom Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta in pasta di bambù biodegradabile a 2 strati personalizzati all'ingrosso</t>
+          <t>Sichuan Petrochemical Yashi Paper Co., Ltd.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Shenzhen Telling Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Confezione 100 tovaglioli di bambù Eco Friendly-tovaglioli biodegradabili usa e getta</t>
+          <t>Qingdao Wellpaper Industrial Co., Ltd.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta usa e getta ecologici per il pranzo riciclabile compostabile da 50 conteggi tovaglioli di carta</t>
+          <t>Jiaxing Jdl Paper Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta di canna da zucchero di bambù biodegradabili ecologici</t>
+          <t>Guangxi Mashan Shengsheng Paper Co., Ltd.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25% di riordini</t>
+          <t>Dalian Weimei House Ware Co., Ltd.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Guangdong Union Eco-Packaging Co., Ltd.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Joylife Industry (Dongguan) Co., Ltd.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,22 +725,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta monouso tessuti molli di bambù biodegradabili Cocktail 2strati tavolo festa di nozze</t>
+          <t>Di lusso in rilievo tovaglioli di carta biodegradabile di bambù cena del tessuto Logo personalizzato stampato per i rivenditori di marca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,0087 €</t>
+          <t>10 €</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 1.800 parti</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta monouso tessuti molli di bambù biodegradabili Cocktail 2strati tavolo festa di nozze</t>
+          <t>Henrich (shandong) Health Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Shenzhen Telling Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Huzhou Anji Jiahui Import And Export Co., Ltd.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Foshan Bao Shi Jie Hygiene Supplies Co., Ltd.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Premio biodegradabile marrone airlone tovagliolo di carta per cena panno di bambù</t>
+          <t>Huzhou Yaojin Nonwoven Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tovaglioli Eco Friendly viso di bambù tessuto compostabile OEM cena tovaglioli Hotel</t>
+          <t>Bright Paper Co., Ltd.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Hebei Mountain Environmental Protection Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Set di posate di bambù di vendita calda con carta senza polvere 50 confezioni di stoviglie di bambù usa e getta compostabili coltelli forchette cucchiai e tovaglioli</t>
+          <t>Dalian Huayufei International Trade Co., Ltd.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Hangzhou Mingxuan Sanitary Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>All'ingrosso Kit di stoviglie di bambù compostabili singoli avvolti usa e getta posate con tovagliolo per feste</t>
+          <t>Hefei Green Way Tableware Co., Ltd.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23x24cm di pasta di bambù N-piega asciugamani di carta realizzati per la serenità a 40gsm tovagliolo biodegradabile ecologico</t>
+          <t>Xiamen Qiaodou Daily Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Customized Factory Directly 2-4 Ply 100%Biodegradable Bamboo TissuePaper Roll Custom Hot Sale Embossed Napkins Tissue Paper</t>
+          <t>Baoding Suiqian Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta marrone di bambù 100% usa e getta in tessuto biodegradabile per eventi di festa con cena a pranzo</t>
+          <t>Quanzhou Blossom Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tovaglioli di pranzo di bambù tovaglioli di carta biodegradabili per pranzo con stampa personalizzata</t>
+          <t>JianHua Tissue Co., Ltd.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Shenzhen Telling Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1149,22 +1149,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Di lusso in rilievo tovaglioli di carta biodegradabile di bambù cena del tessuto Logo personalizzato stampato per i rivenditori di marca</t>
+          <t>Tovaglioli di carta monouso tessuti molli di bambù biodegradabili Cocktail 2strati tavolo festa di nozze</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10 €</t>
+          <t>0,0087 €</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2.000 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Di lusso in rilievo tovaglioli di carta biodegradabile di bambù cena del tessuto Logo personalizzato stampato per i rivenditori di marca</t>
+          <t>Henrich (shandong) Health Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,6734-1,04 €</t>
+          <t>1,04 €</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>100% di bambù marrone Cocktail di carta di tutti i giorni tovaglioli di carta usa e getta tovaglioli di carta biodegradabile per pranzo e cena, eventi</t>
+          <t>Qingdao Wellpaper Industrial Co., Ltd.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Huzhou Anji Jiahui Import And Export Co., Ltd.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Foshan Bao Shi Jie Hygiene Supplies Co., Ltd.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FSC 1 a 4ply su misura tovagliolo di carta biodegradabile e cibo sicuro tovagliolo di carta vergine, misto, riciclato o polpa di bambù disponibile</t>
+          <t>JianHua Tissue Co., Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1307,261 +1307,261 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Eco-friendly 3Ply monouso stoviglie compostabili in fibra di bambù tovaglioli di tessuto per eventi tovaglioli di carta</t>
+          <t>Commercio all'ingrosso personalizzato biodegradabile monouso compostabile in legno di bambù stoviglie posate forchetta e cucchiaio coltello set di tovaglioli</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10 €</t>
+          <t>0,0173-0,0432 €</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 5.000 insiemi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Eco-friendly 3Ply monouso stoviglie compostabili in fibra di bambù tovaglioli di tessuto per eventi tovaglioli di carta</t>
+          <t>Shenzhen Telling Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso personalizzato biodegradabile monouso compostabile in legno di bambù stoviglie posate forchetta e cucchiaio coltello set di tovaglioli</t>
+          <t>All'ingrosso 100% di bambù tovaglioli di carta marrone usa e getta Eco Friendly tovaglioli di tessuto per la festa di nozze eventi di cena</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,0173-0,0432 €</t>
+          <t>0,0777-0,1209 €</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 insiemi</t>
+          <t>Ordine minimo: 3.000 fogli</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso personalizzato biodegradabile monouso compostabile in legno di bambù stoviglie posate forchetta e cucchiaio coltello set di tovaglioli</t>
+          <t>Quanzhou Blossom Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>All'ingrosso 100% di bambù tovaglioli di carta marrone usa e getta Eco Friendly tovaglioli di tessuto per la festa di nozze eventi di cena</t>
+          <t>Set di posate in bambù biodegradabile eco-friendly forchette usa Pre-arrotolate tovaglioli per viaggi di nozze cibo carta verde</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,0777-0,1209 €</t>
+          <t>0,0087-0,0259 €</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ordine minimo: 3.000 fogli</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>All'ingrosso 100% di bambù tovaglioli di carta marrone usa e getta Eco Friendly tovaglioli di tessuto per la festa di nozze eventi di cena</t>
+          <t>Huzhou Anji Jiahui Import And Export Co., Ltd.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Set di posate in bambù biodegradabile eco-friendly forchette usa Pre-arrotolate tovaglioli per viaggi di nozze cibo carta verde</t>
+          <t>Eco-friendly 3Ply monouso stoviglie compostabili in fibra di bambù tovaglioli di tessuto per eventi tovaglioli di carta</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,0087-0,0259 €</t>
+          <t>10 €</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Henrich (shandong) Health Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta in fibra di bambù biodegradabile tessuto molle monouso 2Ply goffrato Cocktail cena festa di nozze</t>
+          <t>Tovagliolo monouso in polpa di bambù 2 strati di tessuto Eco Friendly biodegradabile</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10 €</t>
+          <t>0,5612-1,13 €</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.800 parti</t>
+          <t>Ordine minimo: 2 sacchi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tovaglioli di carta in fibra di bambù biodegradabile tessuto molle monouso 2Ply goffrato Cocktail cena festa di nozze</t>
+          <t>Quanzhou Blossom Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tovagliolo monouso in polpa di bambù 2 strati di tessuto Eco Friendly biodegradabile</t>
+          <t>Set di posate in bambù biodegradabile Pre-arrotolato tovaglioli usa e getta forchette coltelli cucchiai di carta stoviglie per viaggi di nozze</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,5612-1,13 €</t>
+          <t>0,0087-0,0259 €</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2 sacchi</t>
+          <t>Ordine minimo: 100 parti</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tovagliolo monouso in polpa di bambù 2 strati di tessuto Eco Friendly biodegradabile</t>
+          <t>Huzhou Anji Jiahui Import And Export Co., Ltd.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Set di posate in bambù biodegradabile Pre-arrotolato tovaglioli usa e getta forchette coltelli cucchiai di carta stoviglie per viaggi di nozze</t>
+          <t>Produttore personalizzato all'ingrosso eco-friendly 8 volte 2Ply polpa di bambù marrone chiaro ristorante goffratura Hotel bar tovaglioli</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,0087-0,0259 €</t>
+          <t>0,1554-0,1986 €</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 parti</t>
+          <t>Ordine minimo: 800.000 parti</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Hangzhou Mingxuan Sanitary Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Produttore personalizzato all'ingrosso eco-friendly 8 volte 2Ply polpa di bambù marrone chiaro ristorante goffratura Hotel bar tovaglioli</t>
+          <t>Ingrosso stile classico usa e getta eco-friendly pasta di bambù e bagassa insalatiera scatola da pranzo biodegradabile scatola di carta scatole di imballaggio</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,1554-0,1986 €</t>
+          <t>0,0518 €</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ordine minimo: 800.000 parti</t>
+          <t>Ordine minimo: 50.000 parti</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>certificato</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Yiwu Shuangtong Daily Necessities Co., Ltd. Branch</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ingrosso stile classico usa e getta eco-friendly pasta di bambù e bagassa insalatiera scatola da pranzo biodegradabile scatola di carta scatole di imballaggio</t>
+          <t>Vendita diretta della fabbrica eco-friendly polpa di bambù bianco tovaglioli da Cocktail per cena tovaglioli di carta</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,0518 €</t>
+          <t>0,1554-0,1986 €</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50.000 parti</t>
+          <t>Ordine minimo: 1.000 pacchetti</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ingrosso stile classico usa e getta eco-friendly pasta di bambù e bagassa insalatiera scatola da pranzo biodegradabile scatola di carta scatole di imballaggio</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Joylife Industry (Dongguan) Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Vendita diretta della fabbrica eco-friendly polpa di bambù bianco tovaglioli da Cocktail per cena tovaglioli di carta</t>
+          <t>Durable and Eco-Friendly 2Ply Virgin Wood Pulp Napkins Colorful Bamboo Sheets in Bag for Dinner Use</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,1554-0,1986 €</t>
+          <t>0,0087-0,0259 €</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 pacchetti</t>
+          <t>Ordine minimo: 50.000 parti</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Foshan Bao Shi Jie Hygiene Supplies Co., Ltd.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1573,7 +1573,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Durable and Eco-Friendly 2Ply Virgin Wood Pulp Napkins Colorful Bamboo Sheets in Bag for Dinner Use</t>
+          <t>Bacchette di legno di bambù usa e getta all'ingrosso biodegradabili carta kraft ambientale o stoviglie confezionate indipendenti OPP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1583,66 +1583,66 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50.000 parti</t>
+          <t>Ordine minimo: 10.000 parti</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Suqian Green Wooden Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bacchette di legno di bambù usa e getta all'ingrosso biodegradabili carta kraft ambientale o stoviglie confezionate indipendenti OPP</t>
+          <t>Set di posate di bambù 50 confezioni confezionate singolarmente forchette compostabili coltelli tovaglioli campeggio matrimoni-6.7 "usa e getta</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,0087-0,0259 €</t>
+          <t>0,0259-0,0777 €</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 parti</t>
+          <t>Ordine minimo: 50 parti</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bacchette di legno di bambù usa e getta all'ingrosso biodegradabili carta kraft ambientale o stoviglie confezionate indipendenti OPP</t>
+          <t>Guangzhou Gorlando Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Set di posate di bambù 50 confezioni confezionate singolarmente forchette compostabili coltelli tovaglioli campeggio matrimoni-6.7 "usa e getta</t>
+          <t>Vassoio in fibra riciclata diretta in fabbrica, imballaggio in pasta di bambù biodegradabile, scatola di carta, imballaggio compostabile</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,0259-0,0777 €</t>
+          <t>0,0691-0,0864 €</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 parti</t>
+          <t>Ordine minimo: 1.000 parti</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>certificato</t>
+          <t>Dongguan Kinyi Packaging Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1654,22 +1654,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vassoio in fibra riciclata diretta in fabbrica, imballaggio in pasta di bambù biodegradabile, scatola di carta, imballaggio compostabile</t>
+          <t>Tovagliolo Pre arrotolato ecologico e posate di bambù Set di posate compostabili posate confezionate biodegradabili per feste</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,0691-0,0864 €</t>
+          <t>10 €</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 5.000 insiemi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Vassoio in fibra riciclata diretta in fabbrica, imballaggio in pasta di bambù biodegradabile, scatola di carta, imballaggio compostabile</t>
+          <t>Hunan Gianty New Material Technology Co., Ltd.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1679,50 +1679,23 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Tovagliolo Pre arrotolato ecologico e posate di bambù Set di posate compostabili posate confezionate biodegradabili per feste</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10 €</t>
+          <t>0,0864 €</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 insiemi</t>
+          <t>Ordine minimo: 10.000 insiemi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tovagliolo Pre arrotolato ecologico e posate di bambù Set di posate compostabili posate confezionate biodegradabili per feste</t>
+          <t>Dalian Huayufei International Trade Co., Ltd.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0,0864 €</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Ordine minimo: 10.000 insiemi</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Dalian Huayufei International Trade Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
